--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna5-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna5-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Efna5</t>
+  </si>
+  <si>
+    <t>Ephb6</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efna5</t>
-  </si>
-  <si>
-    <t>Ephb6</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.230855</v>
+        <v>2.900731333333333</v>
       </c>
       <c r="H2">
-        <v>0.692565</v>
+        <v>8.702194</v>
       </c>
       <c r="I2">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775288</v>
       </c>
       <c r="J2">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775289</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2721246666666667</v>
+        <v>0.2226943333333333</v>
       </c>
       <c r="N2">
-        <v>0.816374</v>
+        <v>0.668083</v>
       </c>
       <c r="O2">
-        <v>0.1154759865526449</v>
+        <v>0.09471013227150191</v>
       </c>
       <c r="P2">
-        <v>0.1154759865526449</v>
+        <v>0.09471013227150192</v>
       </c>
       <c r="Q2">
-        <v>0.06282133992333334</v>
+        <v>0.6459764304557778</v>
       </c>
       <c r="R2">
-        <v>0.56539205931</v>
+        <v>5.813787874102</v>
       </c>
       <c r="S2">
-        <v>0.007364255951776858</v>
+        <v>0.07700401842188309</v>
       </c>
       <c r="T2">
-        <v>0.007364255951776859</v>
+        <v>0.07700401842188312</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.230855</v>
+        <v>2.900731333333333</v>
       </c>
       <c r="H3">
-        <v>0.692565</v>
+        <v>8.702194</v>
       </c>
       <c r="I3">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775288</v>
       </c>
       <c r="J3">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775289</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.49577</v>
       </c>
       <c r="O3">
-        <v>0.3530263126440755</v>
+        <v>0.3538103900551972</v>
       </c>
       <c r="P3">
-        <v>0.3530263126440755</v>
+        <v>0.3538103900551972</v>
       </c>
       <c r="Q3">
-        <v>0.1920536611166666</v>
+        <v>2.413186079931111</v>
       </c>
       <c r="R3">
-        <v>1.72848295005</v>
+        <v>21.71867471938</v>
       </c>
       <c r="S3">
-        <v>0.02251356495523636</v>
+        <v>0.2876653335839756</v>
       </c>
       <c r="T3">
-        <v>0.02251356495523636</v>
+        <v>0.2876653335839757</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.230855</v>
+        <v>2.900731333333333</v>
       </c>
       <c r="H4">
-        <v>0.692565</v>
+        <v>8.702194</v>
       </c>
       <c r="I4">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775288</v>
       </c>
       <c r="J4">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775289</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.252499666666667</v>
+        <v>1.296707666666667</v>
       </c>
       <c r="N4">
-        <v>3.757499</v>
+        <v>3.890123</v>
       </c>
       <c r="O4">
-        <v>0.5314977008032795</v>
+        <v>0.5514794776733007</v>
       </c>
       <c r="P4">
-        <v>0.5314977008032796</v>
+        <v>0.5514794776733009</v>
       </c>
       <c r="Q4">
-        <v>0.2891458105483333</v>
+        <v>3.761400558873556</v>
       </c>
       <c r="R4">
-        <v>2.602312294935</v>
+        <v>33.852605029862</v>
       </c>
       <c r="S4">
-        <v>0.0338952298512025</v>
+        <v>0.44838007127167</v>
       </c>
       <c r="T4">
-        <v>0.0338952298512025</v>
+        <v>0.4483800712716702</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.900731333333333</v>
+        <v>0.6669870000000001</v>
       </c>
       <c r="H5">
-        <v>8.702194</v>
+        <v>2.000961</v>
       </c>
       <c r="I5">
-        <v>0.8013189515350044</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="J5">
-        <v>0.8013189515350045</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2721246666666667</v>
+        <v>0.2226943333333333</v>
       </c>
       <c r="N5">
-        <v>0.816374</v>
+        <v>0.668083</v>
       </c>
       <c r="O5">
-        <v>0.1154759865526449</v>
+        <v>0.09471013227150191</v>
       </c>
       <c r="P5">
-        <v>0.1154759865526449</v>
+        <v>0.09471013227150192</v>
       </c>
       <c r="Q5">
-        <v>0.7893605471728889</v>
+        <v>0.148534225307</v>
       </c>
       <c r="R5">
-        <v>7.104244924556001</v>
+        <v>1.336808027763</v>
       </c>
       <c r="S5">
-        <v>0.09253309647183566</v>
+        <v>0.0177061138496188</v>
       </c>
       <c r="T5">
-        <v>0.09253309647183569</v>
+        <v>0.0177061138496188</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.900731333333333</v>
+        <v>0.6669870000000001</v>
       </c>
       <c r="H6">
-        <v>8.702194</v>
+        <v>2.000961</v>
       </c>
       <c r="I6">
-        <v>0.8013189515350044</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="J6">
-        <v>0.8013189515350045</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>2.49577</v>
       </c>
       <c r="O6">
-        <v>0.3530263126440755</v>
+        <v>0.3538103900551972</v>
       </c>
       <c r="P6">
-        <v>0.3530263126440755</v>
+        <v>0.3538103900551972</v>
       </c>
       <c r="Q6">
-        <v>2.413186079931111</v>
+        <v>0.55488204833</v>
       </c>
       <c r="R6">
-        <v>21.71867471938</v>
+        <v>4.99393843497</v>
       </c>
       <c r="S6">
-        <v>0.2828866747122192</v>
+        <v>0.06614505647122156</v>
       </c>
       <c r="T6">
-        <v>0.2828866747122193</v>
+        <v>0.06614505647122157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.900731333333333</v>
+        <v>0.6669870000000001</v>
       </c>
       <c r="H7">
-        <v>8.702194</v>
+        <v>2.000961</v>
       </c>
       <c r="I7">
-        <v>0.8013189515350044</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="J7">
-        <v>0.8013189515350045</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.252499666666667</v>
+        <v>1.296707666666667</v>
       </c>
       <c r="N7">
-        <v>3.757499</v>
+        <v>3.890123</v>
       </c>
       <c r="O7">
-        <v>0.5314977008032795</v>
+        <v>0.5514794776733007</v>
       </c>
       <c r="P7">
-        <v>0.5314977008032796</v>
+        <v>0.5514794776733009</v>
       </c>
       <c r="Q7">
-        <v>3.633165028089555</v>
+        <v>0.8648871564670001</v>
       </c>
       <c r="R7">
-        <v>32.698485252806</v>
+        <v>7.783984408203001</v>
       </c>
       <c r="S7">
-        <v>0.4258991803509494</v>
+        <v>0.1030994064016307</v>
       </c>
       <c r="T7">
-        <v>0.4258991803509496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.4883596666666667</v>
-      </c>
-      <c r="H8">
-        <v>1.465079</v>
-      </c>
-      <c r="I8">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="J8">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.2721246666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.816374</v>
-      </c>
-      <c r="O8">
-        <v>0.1154759865526449</v>
-      </c>
-      <c r="P8">
-        <v>0.1154759865526449</v>
-      </c>
-      <c r="Q8">
-        <v>0.1328947115051111</v>
-      </c>
-      <c r="R8">
-        <v>1.196052403546</v>
-      </c>
-      <c r="S8">
-        <v>0.01557863412903235</v>
-      </c>
-      <c r="T8">
-        <v>0.01557863412903235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.4883596666666667</v>
-      </c>
-      <c r="H9">
-        <v>1.465079</v>
-      </c>
-      <c r="I9">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="J9">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.8319233333333332</v>
-      </c>
-      <c r="N9">
-        <v>2.49577</v>
-      </c>
-      <c r="O9">
-        <v>0.3530263126440755</v>
-      </c>
-      <c r="P9">
-        <v>0.3530263126440755</v>
-      </c>
-      <c r="Q9">
-        <v>0.4062778017588889</v>
-      </c>
-      <c r="R9">
-        <v>3.65650021583</v>
-      </c>
-      <c r="S9">
-        <v>0.04762607297661986</v>
-      </c>
-      <c r="T9">
-        <v>0.04762607297661987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.4883596666666667</v>
-      </c>
-      <c r="H10">
-        <v>1.465079</v>
-      </c>
-      <c r="I10">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="J10">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.252499666666667</v>
-      </c>
-      <c r="N10">
-        <v>3.757499</v>
-      </c>
-      <c r="O10">
-        <v>0.5314977008032795</v>
-      </c>
-      <c r="P10">
-        <v>0.5314977008032796</v>
-      </c>
-      <c r="Q10">
-        <v>0.6116703197134445</v>
-      </c>
-      <c r="R10">
-        <v>5.505032877421001</v>
-      </c>
-      <c r="S10">
-        <v>0.07170329060112757</v>
-      </c>
-      <c r="T10">
-        <v>0.07170329060112758</v>
+        <v>0.1030994064016307</v>
       </c>
     </row>
   </sheetData>
